--- a/文档/个人文档/陈思渌/个人总结报告_陈思渌.xlsx
+++ b/文档/个人文档/陈思渌/个人总结报告_陈思渌.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -447,11 +447,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>针对Vue的较深入讲解</t>
+    <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对Vue的较深入讲解，锻炼自学能力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1115,6 +1119,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1128,6 +1135,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1137,14 +1153,44 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1164,21 +1210,6 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1195,33 +1226,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -20180,7 +20184,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -20258,17 +20262,17 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="18"/>
@@ -20891,16 +20895,16 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:9" s="45" customFormat="1" ht="45">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:8" s="45" customFormat="1" ht="16.2">
       <c r="A17" s="46"/>
@@ -21090,15 +21094,15 @@
       <c r="A34" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
     </row>
     <row r="35" spans="1:8" s="38" customFormat="1" ht="18">
       <c r="A35" s="43"/>
@@ -21170,14 +21174,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="22.2">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
     </row>
     <row r="2" spans="2:7" ht="9" customHeight="1">
       <c r="B2" s="68"/>
@@ -21443,7 +21447,7 @@
   <dimension ref="B2:I38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+      <selection activeCell="B28" sqref="B28:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -21458,475 +21462,468 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="34.5" customHeight="1">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="110" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="95" t="s">
+      <c r="E4" s="97"/>
+      <c r="F4" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96" t="s">
+      <c r="G4" s="98"/>
+      <c r="H4" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="96"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="110" t="s">
+      <c r="C5" s="98"/>
+      <c r="D5" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="95" t="s">
+      <c r="E5" s="97"/>
+      <c r="F5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="109" t="s">
+      <c r="G5" s="98"/>
+      <c r="H5" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="96"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="110" t="s">
+      <c r="C6" s="98"/>
+      <c r="D6" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="95" t="s">
+      <c r="E6" s="97"/>
+      <c r="F6" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="109" t="s">
+      <c r="G6" s="98"/>
+      <c r="H6" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="96"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="110" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="95" t="s">
+      <c r="E7" s="97"/>
+      <c r="F7" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="109" t="s">
+      <c r="G7" s="98"/>
+      <c r="H7" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="96"/>
+      <c r="I7" s="100"/>
     </row>
     <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="106" t="s">
+      <c r="D8" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="95" t="s">
+      <c r="E8" s="97"/>
+      <c r="F8" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96" t="s">
+      <c r="G8" s="98"/>
+      <c r="H8" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="96"/>
+      <c r="I8" s="100"/>
     </row>
     <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="99"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
     </row>
     <row r="10" spans="2:9" ht="15" customHeight="1">
       <c r="B10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103" t="s">
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="105"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="114"/>
     </row>
     <row r="11" spans="2:9" ht="15" customHeight="1">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92" t="s">
+      <c r="D11" s="104"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="108"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1">
       <c r="B12" s="13"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="108"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1">
       <c r="B13" s="13"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="94"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="108"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1">
       <c r="B14" s="13"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="94"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="108"/>
     </row>
     <row r="15" spans="2:9" ht="15" customHeight="1">
       <c r="B15" s="13"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="94"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="108"/>
     </row>
     <row r="16" spans="2:9" ht="15" customHeight="1">
       <c r="B16" s="13"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="94"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="108"/>
     </row>
     <row r="17" spans="2:9" ht="15" customHeight="1">
       <c r="B17" s="13"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="108"/>
     </row>
     <row r="18" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="99"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
     </row>
     <row r="19" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="85"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="89"/>
     </row>
     <row r="20" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="86"/>
+    </row>
+    <row r="21" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="86"/>
+    </row>
+    <row r="22" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="86"/>
+    </row>
+    <row r="23" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B23" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="89"/>
+    </row>
+    <row r="24" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B24" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="86"/>
     </row>
-    <row r="21" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="88"/>
+    <row r="25" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="86"/>
     </row>
-    <row r="22" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="88"/>
+    <row r="26" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B26" s="84"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="86"/>
     </row>
-    <row r="23" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B23" s="83" t="s">
-        <v>48</v>
+    <row r="27" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B27" s="87" t="s">
+        <v>49</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="85"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="89"/>
     </row>
-    <row r="24" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B24" s="86" t="s">
+    <row r="28" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B28" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="86"/>
+    </row>
+    <row r="29" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B29" s="84"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="86"/>
+    </row>
+    <row r="30" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="86"/>
+    </row>
+    <row r="31" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B31" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="89"/>
+    </row>
+    <row r="32" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B32" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="86"/>
+    </row>
+    <row r="33" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B33" s="84"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="86"/>
+    </row>
+    <row r="34" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B34" s="84"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="86"/>
+    </row>
+    <row r="35" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B35" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="93"/>
+    </row>
+    <row r="36" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B36" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
-    </row>
-    <row r="25" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="88"/>
-    </row>
-    <row r="26" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="88"/>
-    </row>
-    <row r="27" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B27" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="85"/>
-    </row>
-    <row r="28" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B28" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="88"/>
-    </row>
-    <row r="29" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="88"/>
-    </row>
-    <row r="30" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="88"/>
-    </row>
-    <row r="31" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B31" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="85"/>
-    </row>
-    <row r="32" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B32" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="88"/>
-    </row>
-    <row r="33" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="88"/>
-    </row>
-    <row r="34" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B34" s="86"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="88"/>
-    </row>
-    <row r="35" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B35" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="99"/>
-    </row>
-    <row r="36" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B36" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
     </row>
     <row r="37" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
     </row>
     <row r="38" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B36:I38"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:I15"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -21941,6 +21938,11 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B18:I18"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="C12:E12"/>
@@ -21951,21 +21953,23 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B36:I38"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B25:I25"/>
     <mergeCell ref="B24:I24"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.24" right="0.23" top="1" bottom="1" header="0.5" footer="0.5"/>
